--- a/data/output/Pedido_Semana_07_13022026_maf.xlsx
+++ b/data/output/Pedido_Semana_07_13022026_maf.xlsx
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>38.6</v>
+        <v>14.48</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>23.16</v>
+        <v>8.69</v>
       </c>
       <c r="O10" s="7" t="inlineStr">
         <is>
@@ -1308,10 +1308,10 @@
         </is>
       </c>
       <c r="P10" s="3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q10" s="3" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="R10" s="2" t="n">
         <v>0</v>
@@ -1323,10 +1323,10 @@
         <v>0</v>
       </c>
       <c r="U10" s="8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" hidden="1">
       <c r="A11" s="2" t="inlineStr">
         <is>
           <t>7208010001</t>
@@ -1378,10 +1378,10 @@
         <v>0</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>36.05</v>
+        <v>0</v>
       </c>
       <c r="N11" s="4" t="n">
-        <v>21.63</v>
+        <v>0</v>
       </c>
       <c r="O11" s="7" t="inlineStr">
         <is>
@@ -1389,10 +1389,10 @@
         </is>
       </c>
       <c r="P11" s="3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q11" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R11" s="2" t="n">
         <v>0</v>
@@ -1404,7 +1404,7 @@
         <v>0</v>
       </c>
       <c r="U11" s="8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" hidden="1">
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="1">
       <c r="A17" s="2" t="inlineStr">
         <is>
           <t>7804230002</t>
@@ -1864,10 +1864,10 @@
         <v>1</v>
       </c>
       <c r="M17" s="6" t="n">
-        <v>18.2</v>
+        <v>0</v>
       </c>
       <c r="N17" s="4" t="n">
-        <v>10.92</v>
+        <v>0</v>
       </c>
       <c r="O17" s="7" t="inlineStr">
         <is>
@@ -1875,10 +1875,10 @@
         </is>
       </c>
       <c r="P17" s="3" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="Q17" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R17" s="2" t="n">
         <v>0</v>
@@ -1890,7 +1890,7 @@
         <v>5</v>
       </c>
       <c r="U17" s="8" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2298,7 +2298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="1">
       <c r="A23" s="2" t="inlineStr">
         <is>
           <t>7804230001</t>
@@ -2350,10 +2350,10 @@
         <v>0</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>29.1</v>
+        <v>0</v>
       </c>
       <c r="N23" s="4" t="n">
-        <v>17.46</v>
+        <v>0</v>
       </c>
       <c r="O23" s="7" t="inlineStr">
         <is>
@@ -2361,10 +2361,10 @@
         </is>
       </c>
       <c r="P23" s="3" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="Q23" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R23" s="2" t="n">
         <v>0</v>
@@ -2376,7 +2376,7 @@
         <v>9</v>
       </c>
       <c r="U23" s="8" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2865,7 +2865,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="1">
       <c r="A30" s="2" t="inlineStr">
         <is>
           <t>7205030002</t>
@@ -2917,10 +2917,10 @@
         <v>0</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>64.65000000000001</v>
+        <v>0</v>
       </c>
       <c r="N30" s="4" t="n">
-        <v>38.79</v>
+        <v>0</v>
       </c>
       <c r="O30" s="7" t="inlineStr">
         <is>
@@ -2928,10 +2928,10 @@
         </is>
       </c>
       <c r="P30" s="3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q30" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R30" s="2" t="n">
         <v>0</v>
@@ -2943,7 +2943,7 @@
         <v>0</v>
       </c>
       <c r="U30" s="8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3108,7 +3108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="1">
       <c r="A33" s="2" t="inlineStr">
         <is>
           <t>7203320001</t>
@@ -3121,7 +3121,7 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">M13A25   </t>
+          <t xml:space="preserve">M105A20  </t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
@@ -3135,13 +3135,13 @@
         </is>
       </c>
       <c r="F33" s="3" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G33" s="4" t="n">
-        <v>2.75</v>
+        <v>1.72</v>
       </c>
       <c r="H33" s="4" t="n">
-        <v>1.1</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I33" s="5" t="inlineStr">
         <is>
@@ -3150,20 +3150,20 @@
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>REDUCIR 9%</t>
+          <t>REDUCIR 19%</t>
         </is>
       </c>
       <c r="K33" s="3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L33" s="3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M33" s="6" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="N33" s="4" t="n">
-        <v>13.2</v>
+        <v>0</v>
       </c>
       <c r="O33" s="7" t="inlineStr">
         <is>
@@ -3171,22 +3171,22 @@
         </is>
       </c>
       <c r="P33" s="3" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="Q33" s="3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="R33" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S33" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T33" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U33" s="8" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" hidden="1">
@@ -3202,7 +3202,7 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">M105A20  </t>
+          <t xml:space="preserve">M13A25   </t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
@@ -3216,44 +3216,44 @@
         </is>
       </c>
       <c r="F34" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="G34" s="4" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="H34" s="4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I34" s="5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>REDUCIR 9%</t>
+        </is>
+      </c>
+      <c r="K34" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="L34" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">HORTICULTURA NYCTA SAT                                                                                                  </t>
+        </is>
+      </c>
+      <c r="P34" s="3" t="n">
         <v>14</v>
       </c>
-      <c r="G34" s="4" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="H34" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="I34" s="5" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="J34" s="2" t="inlineStr">
-        <is>
-          <t>REDUCIR 19%</t>
-        </is>
-      </c>
-      <c r="K34" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="L34" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="M34" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" s="7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">HORTICULTURA NYCTA SAT                                                                                                  </t>
-        </is>
-      </c>
-      <c r="P34" s="3" t="n">
-        <v>24</v>
-      </c>
       <c r="Q34" s="3" t="n">
         <v>0</v>
       </c>
@@ -3261,10 +3261,10 @@
         <v>0</v>
       </c>
       <c r="S34" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T34" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U34" s="8" t="n">
         <v>0</v>
@@ -3432,7 +3432,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="1">
       <c r="A37" s="2" t="inlineStr">
         <is>
           <t>7804200001</t>
@@ -3484,10 +3484,10 @@
         <v>-1</v>
       </c>
       <c r="M37" s="6" t="n">
-        <v>22.8</v>
+        <v>0</v>
       </c>
       <c r="N37" s="4" t="n">
-        <v>13.68</v>
+        <v>0</v>
       </c>
       <c r="O37" s="7" t="inlineStr">
         <is>
@@ -3495,10 +3495,10 @@
         </is>
       </c>
       <c r="P37" s="3" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Q37" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R37" s="2" t="n">
         <v>0</v>
@@ -3510,7 +3510,7 @@
         <v>2</v>
       </c>
       <c r="U37" s="8" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" hidden="1">
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="1">
       <c r="A43" s="2" t="inlineStr">
         <is>
           <t>7805020001</t>
@@ -3970,10 +3970,10 @@
         <v>0</v>
       </c>
       <c r="M43" s="6" t="n">
-        <v>23.2</v>
+        <v>0</v>
       </c>
       <c r="N43" s="4" t="n">
-        <v>13.92</v>
+        <v>0</v>
       </c>
       <c r="O43" s="7" t="inlineStr">
         <is>
@@ -3981,10 +3981,10 @@
         </is>
       </c>
       <c r="P43" s="3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q43" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R43" s="2" t="n">
         <v>0</v>
@@ -3996,10 +3996,10 @@
         <v>0</v>
       </c>
       <c r="U43" s="8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" hidden="1">
       <c r="A44" s="2" t="inlineStr">
         <is>
           <t>7805020003</t>
@@ -4051,10 +4051,10 @@
         <v>0</v>
       </c>
       <c r="M44" s="6" t="n">
-        <v>30.52</v>
+        <v>0</v>
       </c>
       <c r="N44" s="4" t="n">
-        <v>18.31</v>
+        <v>0</v>
       </c>
       <c r="O44" s="7" t="inlineStr">
         <is>
@@ -4062,10 +4062,10 @@
         </is>
       </c>
       <c r="P44" s="3" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="Q44" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R44" s="2" t="n">
         <v>0</v>
@@ -4077,7 +4077,7 @@
         <v>1</v>
       </c>
       <c r="U44" s="8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" hidden="1">
@@ -4161,7 +4161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" hidden="1">
       <c r="A46" s="2" t="inlineStr">
         <is>
           <t>7201000001</t>
@@ -4213,10 +4213,10 @@
         <v>2</v>
       </c>
       <c r="M46" s="6" t="n">
-        <v>56.55</v>
+        <v>0</v>
       </c>
       <c r="N46" s="4" t="n">
-        <v>33.93</v>
+        <v>0</v>
       </c>
       <c r="O46" s="7" t="inlineStr">
         <is>
@@ -4224,10 +4224,10 @@
         </is>
       </c>
       <c r="P46" s="3" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="Q46" s="3" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="R46" s="2" t="n">
         <v>0</v>
@@ -4239,7 +4239,7 @@
         <v>1</v>
       </c>
       <c r="U46" s="8" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -4809,7 +4809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" hidden="1">
       <c r="A54" s="2" t="inlineStr">
         <is>
           <t>7401740011</t>
@@ -4858,13 +4858,13 @@
         <v>1</v>
       </c>
       <c r="L54" s="3" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M54" s="6" t="n">
-        <v>14.1</v>
+        <v>0</v>
       </c>
       <c r="N54" s="4" t="n">
-        <v>8.460000000000001</v>
+        <v>0</v>
       </c>
       <c r="O54" s="7" t="inlineStr">
         <is>
@@ -4872,10 +4872,10 @@
         </is>
       </c>
       <c r="P54" s="3" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="Q54" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R54" s="2" t="n">
         <v>0</v>
@@ -4887,7 +4887,7 @@
         <v>0</v>
       </c>
       <c r="U54" s="8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -5992,7 +5992,7 @@
         <v>1</v>
       </c>
       <c r="L68" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M68" s="6" t="n">
         <v>10.65</v>
@@ -6120,7 +6120,7 @@
         </is>
       </c>
       <c r="C72" s="5" t="n">
-        <v>198</v>
+        <v>132</v>
       </c>
     </row>
     <row r="73">
@@ -6141,7 +6141,7 @@
       </c>
       <c r="C74" s="5" t="inlineStr">
         <is>
-          <t>1021.15€</t>
+          <t>679.86€</t>
         </is>
       </c>
     </row>
